--- a/data/qPCR_dilp3.xlsx
+++ b/data/qPCR_dilp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D56407-7C9A-B343-9010-FB46412EF45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FC0655-47B7-764F-B680-E7243BF85030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{92F5B965-10C9-0744-BAD9-EEAC9A0F5ED9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>A1</t>
   </si>
@@ -56,10 +56,16 @@
     <t>B3</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
   <si>
     <t>D2</t>
@@ -440,17 +446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717DCD00-E895-F948-9E02-14FB68EA9B6B}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -480,10 +486,16 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,18 +517,18 @@
       <c r="G2" s="1">
         <v>35.404783258175001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>33.451340129295701</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>34.011158582278703</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>35.103455994065499</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -538,20 +550,20 @@
       <c r="G3" s="1">
         <v>34.786785953929702</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>34.169745327450102</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>34.4199657639588</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>35.394301110596302</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>39.889302052970102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -573,16 +585,16 @@
       <c r="G4" s="1">
         <v>35.347927975574201</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>33.456844793349703</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>34.047410857136498</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>35.961990868303197</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>38.372354057012799</v>
       </c>
     </row>

--- a/data/qPCR_dilp3.xlsx
+++ b/data/qPCR_dilp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6B08664-5F19-AB44-9061-C5D54DC5A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C3E744-C8E1-534C-9994-6DED21D4D7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{92F5B965-10C9-0744-BAD9-EEAC9A0F5ED9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>A1</t>
   </si>
@@ -65,10 +65,16 @@
     <t>C3</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
     <t>replicate</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -440,17 +446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717DCD00-E895-F948-9E02-14FB68EA9B6B}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -482,8 +488,14 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,12 +526,12 @@
       <c r="J2" s="1">
         <v>34.011158582278703</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>35.103455994065499</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -550,12 +562,14 @@
       <c r="J3" s="1">
         <v>34.4199657639588</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>35.394301110596302</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>39.889302052970102</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -586,10 +600,12 @@
       <c r="J4" s="1">
         <v>34.047410857136498</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>35.961990868303197</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>38.372354057012799</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
